--- a/PredictionInterval.xlsx
+++ b/PredictionInterval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="8_{3C09572E-698A-41A2-B0D7-5067F5088005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20827442-CEC1-43F6-AEEE-83EEBF2DFBFF}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{3C09572E-698A-41A2-B0D7-5067F5088005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA297196-7A3C-4782-9C76-6FB947764619}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Hb A1C</t>
   </si>
@@ -301,15 +301,34 @@
   <si>
     <t>pred</t>
   </si>
+  <si>
+    <t>https://online.stat.psu.edu/stat501/book/export/html/909</t>
+  </si>
+  <si>
+    <t>Actually derives the correct relationship</t>
+  </si>
+  <si>
+    <t>https://stats.stackexchange.com/questions/473512/prediction-intervals-for-a-single-random-variable</t>
+  </si>
+  <si>
+    <t>https://stats.stackexchange.com/questions/33433/linear-regression-prediction-interval</t>
+  </si>
+  <si>
+    <t>https://online.stat.psu.edu/stat501/lesson/3/3.3</t>
+  </si>
+  <si>
+    <t>MSE is mean square error. Now we are getting closer.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.0_0"/>
+    <numFmt numFmtId="166" formatCode="0.0_0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -678,7 +697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -695,13 +714,13 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -710,8 +729,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,11 +740,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -743,9 +762,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="16" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="Calculation" xfId="15" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="16" builtinId="3"/>
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" customBuiltin="1"/>
@@ -762,21 +783,7 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1016,27 +1023,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
-      <tableStyleElement type="pageFieldValues" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="lastColumn" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1323,9 +1330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>349331</xdr:colOff>
+      <xdr:colOff>352506</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>63534</xdr:rowOff>
+      <xdr:rowOff>66709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1367,7 +1374,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390671</xdr:colOff>
+      <xdr:colOff>387496</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>95288</xdr:rowOff>
     </xdr:to>
@@ -1444,6 +1451,525 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84359</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55735D8-B57C-2885-45F9-752DBAFB44AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="7324725"/>
+          <a:ext cx="2868834" cy="511175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>543545</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096BA648-AFEB-2E65-BC6F-7320B53D2AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="8115300"/>
+          <a:ext cx="12065620" cy="1447874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266933</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>130240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D3EAE3-FB01-364D-00DE-A39D78DFA347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="10382250"/>
+          <a:ext cx="4534133" cy="1263715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552666</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>63595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E70F5B-8229-484A-5FFE-41E36364C4AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="11839575"/>
+          <a:ext cx="4210266" cy="1841595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28764</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>111339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20598A17-5584-8B74-5734-4D4DD4FADBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="13782675"/>
+          <a:ext cx="3683189" cy="4159464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85917</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>82679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE79DE66-A2B8-E03C-EE63-8E7E96E78E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="18154650"/>
+          <a:ext cx="3740342" cy="2514729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162121</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0150B3A-90E7-C840-00B6-C8BE8ED3EFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="21069300"/>
+          <a:ext cx="3822896" cy="5353325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Star: 4 Points 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317CC1B9-D25A-6E5F-6687-EA76CADC7529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="20431125"/>
+          <a:ext cx="654050" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>389112</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>140059</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E412FB32-EAD0-361C-F968-BB31F1197433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2438400" y="27038300"/>
+          <a:ext cx="11307937" cy="5994759"/>
+          <a:chOff x="2438400" y="27041475"/>
+          <a:chExt cx="11304762" cy="5988409"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Picture 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BEF248-33C9-3464-02F8-AB6940CD9BF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="27222450"/>
+            <a:ext cx="11304762" cy="3066667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Callout: Line 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B137FB36-E8F3-3A98-BEB8-A183E2F4B935}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6210300" y="27041475"/>
+            <a:ext cx="2095500" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="borderCallout1">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 18750"/>
+              <a:gd name="adj2" fmla="val -8333"/>
+              <a:gd name="adj3" fmla="val 135904"/>
+              <a:gd name="adj4" fmla="val -104302"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>t in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> this case is the one-tailed function being used to compute the t value</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Picture 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4527EC-D926-26C6-62F8-56695767D8B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="30460950"/>
+            <a:ext cx="5931728" cy="2568934"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1654,6 +2180,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1669,10 +2198,10 @@
     <tabColor rgb="FFCCFFCC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" activeCellId="1" sqref="Q19 M13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P164" sqref="P164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1682,53 +2211,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="22">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="3" cm="1">
@@ -1744,7 +2273,7 @@
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <f>COUNT(_X)</f>
         <v>15</v>
       </c>
@@ -1754,29 +2283,29 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>5.5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>110</v>
       </c>
-      <c r="D3" s="10" cm="1">
+      <c r="D3" s="9" cm="1">
         <f t="array" ref="D3:D17">TREND(_Y,_X)</f>
         <v>117.78333577283371</v>
       </c>
-      <c r="E3" s="10" cm="1">
+      <c r="E3" s="9" cm="1">
         <f t="array" ref="E3:E17">_Yp-conf(_X)</f>
         <v>112.4244410758814</v>
       </c>
-      <c r="F3" s="10" cm="1">
+      <c r="F3" s="9" cm="1">
         <f t="array" ref="F3:F17">_Yp+conf(_X)</f>
         <v>123.14223046978601</v>
       </c>
-      <c r="G3" s="10" cm="1">
+      <c r="G3" s="9" cm="1">
         <f t="array" ref="G3:G17">_Yp-pred(_X)</f>
         <v>103.99447983387961</v>
       </c>
-      <c r="H3" s="10" cm="1">
+      <c r="H3" s="9" cm="1">
         <f t="array" ref="H3:H17">_Yp+pred(_X)</f>
         <v>131.57219171178781</v>
       </c>
@@ -1805,25 +2334,25 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>5.5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>118</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>117.78333577283371</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>112.4244410758814</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>123.14223046978601</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>103.99447983387961</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>131.57219171178781</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1851,25 +2380,25 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>5.8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>115</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>120.90502415105385</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>116.0300788313411</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>125.7799694707666</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>107.29694244927106</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>134.51310585283665</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1887,35 +2416,35 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="24">
-        <f>TINV(alpha,df)</f>
+      <c r="O5" s="23">
+        <f>_xlfn.T.INV.2T(alpha,df)</f>
         <v>2.1603686564627926</v>
       </c>
       <c r="P5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(O5)</f>
-        <v>=TINV(alpha,df)</v>
+        <v>=T.INV.2T(alpha,df)</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>6.1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>120</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>124.02671252927399</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>119.5984150496359</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>128.4550100089121</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>110.5721737300295</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>137.48125132851848</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1933,7 +2462,7 @@
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <f>SQRT(SSres/df)</f>
         <v>5.8809001092390423</v>
       </c>
@@ -1943,265 +2472,265 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6.5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>125</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>128.18896370023418</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>124.27618537075642</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>132.10174202971194</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>114.89518207167427</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>141.4827453287941</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>6.8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>146</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>131.31065207845432</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>127.70300310871745</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>134.91830104819121</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>118.10345984009231</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>144.51784431681634</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>7.1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>135</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>134.43234045667447</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>131.0385497850404</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>137.82613112830853</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>121.28195601913514</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>147.58272489421381</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7.4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>140</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>137.55402883489461</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>134.26497329299335</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>140.84308437679587</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>124.43028386290138</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>150.67777380688784</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>7.7</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>145</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>140.67571721311475</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>137.37187932463317</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>143.97955510159633</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>127.54825970887683</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>153.80317471735268</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>145</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>143.79740559133489</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>140.36080982956199</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>147.2340013531078</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>130.63590924167761</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>156.95890194099218</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>150</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>143.79740559133489</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>140.36080982956199</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>147.2340013531078</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>130.63590924167761</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>156.95890194099218</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>147</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>146.91909396955504</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>143.24452960529104</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>150.59365833381904</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>133.69346661205984</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>160.14472132705023</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>155</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>154.20303351873537</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>149.66961132578871</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>158.73645571168203</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>140.71352972831716</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>167.69253730915358</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>160</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>164.60866144613581</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>158.43180942297786</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>170.78551346929376</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>150.48179708605232</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>178.7355258062193</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>11</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>170</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>175.01428937353629</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>166.97594732810782</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>183.05263141896475</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>159.98000393752341</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>190.04857480954917</v>
       </c>
     </row>
@@ -2227,61 +2756,94 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="18" cm="1">
+      <c r="F22" s="17" cm="1">
         <f t="array" ref="F22">_xlfn.LAMBDA(_xlpm.X, t_95 * SE * SQRT(1 / n + (_xlpm.X - xm) ^ 2 / SSxx))(5.5)</f>
         <v>5.3588946969523041</v>
       </c>
-      <c r="G22" s="18" t="str">
+      <c r="G22" s="17" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F22)</f>
         <v>=LAMBDA(X, t_95 * SE * SQRT(1 / n + (X - xm) ^ 2 / SSxx))(5.5)</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="21" cm="1">
+      <c r="F23" s="20" cm="1">
         <f t="array" ref="F23">_xlfn.LAMBDA(_xlpm.X, t_95 * SE * SQRT(1 + 1 / n + (_xlpm.X - xm) ^ 2 / SSxx))(5.5)</f>
         <v>13.788855938954104</v>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="G23" s="20" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F23)</f>
         <v>=LAMBDA(X, t_95 * SE * SQRT(1 + 1 / n + (X - xm) ^ 2 / SSxx))(5.5)</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="6" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="27"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H17 A3:B17">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A3:B17 D3:H17">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(A3)-ROW($A$2),2)</formula>
     </cfRule>
   </conditionalFormatting>
